--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\axelc\Documents\Formation web\P4\lapanthereoptim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F320AD37-298E-4DE2-B8A2-B1DB16112D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F87E0F-9C3E-477F-9E3C-864CA60E6C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="75" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="183">
   <si>
     <t>Catégorie</t>
   </si>
@@ -790,6 +790,18 @@
       </rPr>
       <t>&lt;div class="skipnav"&gt;&lt;a href="#maincontent"&gt;Skip to main content&lt;/a&gt; &lt;a href="#sitemap"&gt;Skip to footer site map&lt;/a&gt;&lt;/div&gt;</t>
     </r>
+  </si>
+  <si>
+    <t>Portfolio Pas navigable au clavier</t>
+  </si>
+  <si>
+    <t>accessibilité clavier</t>
+  </si>
+  <si>
+    <t>Lightbox css ?</t>
+  </si>
+  <si>
+    <t>Lightbox pas de texte du lien mais description de l'image</t>
   </si>
 </sst>
 </file>
@@ -1283,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1619,7 +1631,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="2:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>77</v>
       </c>
@@ -1646,35 +1658,35 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="2:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="2:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="2:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="2:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="2:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>18</v>
       </c>
@@ -1730,7 +1742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>29</v>
       </c>
@@ -1738,67 +1750,67 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>43</v>
       </c>
@@ -1809,7 +1821,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>83</v>
       </c>
@@ -1817,32 +1829,32 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>90</v>
       </c>
@@ -1850,17 +1862,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>96</v>
       </c>
@@ -1876,7 +1888,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>95</v>
       </c>
@@ -1981,26 +1993,43 @@
         <v>178</v>
       </c>
     </row>
-    <row r="81" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D81" s="25" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2928,9 +2957,10 @@
     <hyperlink ref="B36" r:id="rId1" display="https://developers.google.com/speed/pagespeed/insights/?url=http://127.0.0.1:5500/index.html" xr:uid="{683B96F1-86F8-4ECF-B44C-82E8683D2F05}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{0CF20E1E-DF8B-4065-8F83-AC51A40A7417}"/>
     <hyperlink ref="G2" r:id="rId3" display="https://trends.google.com/trends/explore?geo=FR&amp;q=agence%20web" xr:uid="{1EECDDC0-C9B1-4E76-90A7-029B2D1E56A6}"/>
+    <hyperlink ref="C83" r:id="rId4" display="https://tympanus.net/codrops/2011/12/26/css3-lightbox/" xr:uid="{A8154C88-2416-4FDD-8283-0F89804A169F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId4"/>
+  <pageSetup orientation="landscape" r:id="rId5"/>
 </worksheet>
 </file>
 
